--- a/Top 10 Queens Neighborhoods COVID Case Rate.xlsx
+++ b/Top 10 Queens Neighborhoods COVID Case Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opnyc\Desktop\NYU MSPP\Policy and Data Studio\COVID-Analysis-Queens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D197245-DF2A-40BF-B1CE-53E6CABE467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A241B3-8AC2-487A-A560-C219A191226A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3610" yWindow="3610" windowWidth="17300" windowHeight="8900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 10 Queens Neighborhoods COV" sheetId="1" r:id="rId1"/>
@@ -597,8 +597,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -696,7 +697,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 10 Neighborhoods in Queens: COVID-19 Case Rate</a:t>
+              <a:t> 10 Neighborhoods in Queens: COVID-19 Case Rate (per 100,000 people)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -775,7 +776,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -860,7 +861,7 @@
             <c:numRef>
               <c:f>Tables!$J$2:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>28013.48</c:v>
@@ -1101,7 +1102,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1737,16 +1738,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1412874</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1768474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1568450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2768,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2886,7 +2887,7 @@
       <c r="I2">
         <v>7792</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>28013.48</v>
       </c>
       <c r="K2">
@@ -2948,7 +2949,7 @@
       <c r="I3">
         <v>10491</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>28371.01</v>
       </c>
       <c r="K3">
@@ -3010,7 +3011,7 @@
       <c r="I4">
         <v>10599</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>28726.21</v>
       </c>
       <c r="K4">
@@ -3072,7 +3073,7 @@
       <c r="I5">
         <v>28688</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>29183.29</v>
       </c>
       <c r="K5">
@@ -3134,7 +3135,7 @@
       <c r="I6">
         <v>20887</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>29349.38</v>
       </c>
       <c r="K6">
@@ -3196,7 +3197,7 @@
       <c r="I7">
         <v>12697</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>29750.37</v>
       </c>
       <c r="K7">
@@ -3258,7 +3259,7 @@
       <c r="I8">
         <v>13934</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>31065.11</v>
       </c>
       <c r="K8">
@@ -3320,7 +3321,7 @@
       <c r="I9">
         <v>14229</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>31937.98</v>
       </c>
       <c r="K9">
@@ -3382,7 +3383,7 @@
       <c r="I10">
         <v>12848</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>32684.32</v>
       </c>
       <c r="K10">
@@ -3444,7 +3445,7 @@
       <c r="I11">
         <v>1618</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>41560.839999999997</v>
       </c>
       <c r="K11">
